--- a/Code/Results/Cases/Case_5_123/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_123/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.20787178063604</v>
+        <v>9.569019626703195</v>
       </c>
       <c r="C2">
-        <v>6.961319614716427</v>
+        <v>4.77145487767217</v>
       </c>
       <c r="D2">
-        <v>6.711346505372457</v>
+        <v>9.111797131698783</v>
       </c>
       <c r="E2">
-        <v>9.268162984413788</v>
+        <v>13.73263851607108</v>
       </c>
       <c r="F2">
-        <v>22.68654174919775</v>
+        <v>33.53764191898373</v>
       </c>
       <c r="I2">
-        <v>14.4600191811484</v>
+        <v>23.12770959703998</v>
       </c>
       <c r="J2">
-        <v>5.970995403164675</v>
+        <v>10.16022615965016</v>
       </c>
       <c r="K2">
-        <v>10.98127285836783</v>
+        <v>9.879565221039705</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>11.24904818483087</v>
+        <v>15.27455908910457</v>
       </c>
       <c r="N2">
-        <v>12.75529334253427</v>
+        <v>19.72310094328491</v>
       </c>
       <c r="O2">
-        <v>16.24054217735598</v>
+        <v>25.33748623929682</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,40 +462,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.41614055775578</v>
+        <v>9.323129051461319</v>
       </c>
       <c r="C3">
-        <v>6.521019558072689</v>
+        <v>4.608940374867309</v>
       </c>
       <c r="D3">
-        <v>6.451340628001362</v>
+        <v>9.081071464213434</v>
       </c>
       <c r="E3">
-        <v>9.051491785648832</v>
+        <v>13.72823215512705</v>
       </c>
       <c r="F3">
-        <v>22.44488147026762</v>
+        <v>33.59627219694943</v>
       </c>
       <c r="I3">
-        <v>14.58379765866252</v>
+        <v>23.20840598797397</v>
       </c>
       <c r="J3">
-        <v>5.97424365927833</v>
+        <v>10.17970882645873</v>
       </c>
       <c r="K3">
-        <v>10.32546420697924</v>
+        <v>9.72431153211933</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>10.79367522351711</v>
+        <v>15.21705972128952</v>
       </c>
       <c r="N3">
-        <v>12.9435661631975</v>
+        <v>19.78037058264195</v>
       </c>
       <c r="O3">
-        <v>16.2413489233817</v>
+        <v>25.40848426633846</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,40 +503,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.90144990052702</v>
+        <v>9.170404399642626</v>
       </c>
       <c r="C4">
-        <v>6.235372290747246</v>
+        <v>4.506845230006216</v>
       </c>
       <c r="D4">
-        <v>6.288915557106363</v>
+        <v>9.063625518905512</v>
       </c>
       <c r="E4">
-        <v>8.920571054306643</v>
+        <v>13.72782019895599</v>
       </c>
       <c r="F4">
-        <v>22.31222624020161</v>
+        <v>33.63918473314339</v>
       </c>
       <c r="I4">
-        <v>14.66904789986449</v>
+        <v>23.26173951049202</v>
       </c>
       <c r="J4">
-        <v>5.978647527566743</v>
+        <v>10.19279432961303</v>
       </c>
       <c r="K4">
-        <v>9.900789781170609</v>
+        <v>9.629292081229572</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>10.50827885477476</v>
+        <v>15.18400478770095</v>
       </c>
       <c r="N4">
-        <v>13.06187394596209</v>
+        <v>19.81719153603212</v>
       </c>
       <c r="O4">
-        <v>16.2535565814038</v>
+        <v>25.45667817026714</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,40 +544,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.68450851682395</v>
+        <v>9.107823740127978</v>
       </c>
       <c r="C5">
-        <v>6.115119927296705</v>
+        <v>4.464724283594077</v>
       </c>
       <c r="D5">
-        <v>6.222128093685638</v>
+        <v>9.0568784276144</v>
       </c>
       <c r="E5">
-        <v>8.867817017869958</v>
+        <v>13.72823079897826</v>
       </c>
       <c r="F5">
-        <v>22.26207428356703</v>
+        <v>33.65840857046877</v>
       </c>
       <c r="I5">
-        <v>14.70603271515201</v>
+        <v>23.28442515574811</v>
       </c>
       <c r="J5">
-        <v>5.981035990960499</v>
+        <v>10.19840949986023</v>
       </c>
       <c r="K5">
-        <v>9.722227505436756</v>
+        <v>9.590695588802371</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>10.39069247507306</v>
+        <v>15.17111028186028</v>
       </c>
       <c r="N5">
-        <v>13.11078427462458</v>
+        <v>19.83261428344701</v>
       </c>
       <c r="O5">
-        <v>16.26137949250298</v>
+        <v>25.47747334745744</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,40 +585,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.64805022851267</v>
+        <v>9.09741435629485</v>
       </c>
       <c r="C6">
-        <v>6.094919726762141</v>
+        <v>4.457700947733464</v>
       </c>
       <c r="D6">
-        <v>6.211005132495693</v>
+        <v>9.055780105576938</v>
       </c>
       <c r="E6">
-        <v>8.859095224565509</v>
+        <v>13.72833396301123</v>
       </c>
       <c r="F6">
-        <v>22.25398089592587</v>
+        <v>33.66170550223953</v>
       </c>
       <c r="I6">
-        <v>14.71230728628294</v>
+        <v>23.28824957304356</v>
       </c>
       <c r="J6">
-        <v>5.981468109479947</v>
+        <v>10.19935897946649</v>
       </c>
       <c r="K6">
-        <v>9.692246062120004</v>
+        <v>9.584295596422464</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>10.37109515166545</v>
+        <v>15.16900420395823</v>
       </c>
       <c r="N6">
-        <v>13.11894852857271</v>
+        <v>19.83520049503994</v>
       </c>
       <c r="O6">
-        <v>16.2628476543204</v>
+        <v>25.48099614154455</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,40 +626,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.89855332919642</v>
+        <v>9.169561679193622</v>
       </c>
       <c r="C7">
-        <v>6.233766106716484</v>
+        <v>4.506279173232492</v>
       </c>
       <c r="D7">
-        <v>6.288017117671211</v>
+        <v>9.063533051743342</v>
       </c>
       <c r="E7">
-        <v>8.919857090677571</v>
+        <v>13.72782339211653</v>
       </c>
       <c r="F7">
-        <v>22.31153412892654</v>
+        <v>33.63943696364459</v>
       </c>
       <c r="I7">
-        <v>14.66953770598447</v>
+        <v>23.26204160338371</v>
       </c>
       <c r="J7">
-        <v>5.978677350596206</v>
+        <v>10.19286891261677</v>
       </c>
       <c r="K7">
-        <v>9.898403865224022</v>
+        <v>9.628770987526766</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>10.50669800475382</v>
+        <v>15.18382854448871</v>
       </c>
       <c r="N7">
-        <v>13.06253071427618</v>
+        <v>19.81739783890121</v>
       </c>
       <c r="O7">
-        <v>16.2536506803751</v>
+        <v>25.45695394320491</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,40 +667,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.9407990631849</v>
+        <v>9.48465470477362</v>
       </c>
       <c r="C8">
-        <v>6.812677635315781</v>
+        <v>4.715936477412281</v>
       </c>
       <c r="D8">
-        <v>6.622331076647507</v>
+        <v>9.100911520049872</v>
       </c>
       <c r="E8">
-        <v>9.193054419274482</v>
+        <v>13.73064429063252</v>
       </c>
       <c r="F8">
-        <v>22.59992781796631</v>
+        <v>33.55642183003316</v>
       </c>
       <c r="I8">
-        <v>14.50072808975558</v>
+        <v>23.15474793697524</v>
       </c>
       <c r="J8">
-        <v>5.971608087446943</v>
+        <v>10.16671088300262</v>
       </c>
       <c r="K8">
-        <v>10.75973101049528</v>
+        <v>9.825998445407086</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>11.09333574826212</v>
+        <v>15.25427244606797</v>
       </c>
       <c r="N8">
-        <v>12.81965902731032</v>
+        <v>19.74250429799471</v>
       </c>
       <c r="O8">
-        <v>16.23833141085498</v>
+        <v>25.36101079040478</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,40 +708,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.75904825745576</v>
+        <v>10.08476391724651</v>
       </c>
       <c r="C9">
-        <v>7.826823920970473</v>
+        <v>5.10618764783627</v>
       </c>
       <c r="D9">
-        <v>7.251944014551531</v>
+        <v>9.185229100752917</v>
       </c>
       <c r="E9">
-        <v>9.742778143443754</v>
+        <v>13.75428849249351</v>
       </c>
       <c r="F9">
-        <v>23.29188246942435</v>
+        <v>33.44854839740529</v>
       </c>
       <c r="I9">
-        <v>14.24693360894299</v>
+        <v>22.97438779415082</v>
       </c>
       <c r="J9">
-        <v>5.977403760580975</v>
+        <v>10.12431202030651</v>
       </c>
       <c r="K9">
-        <v>12.273505493663</v>
+        <v>10.21313256478079</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>12.19117504267637</v>
+        <v>15.40980522902307</v>
       </c>
       <c r="N9">
-        <v>12.36400655064014</v>
+        <v>19.60873130666223</v>
       </c>
       <c r="O9">
-        <v>16.30550121076348</v>
+        <v>25.20942116238844</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,40 +749,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.95912659174366</v>
+        <v>10.5099479312334</v>
       </c>
       <c r="C10">
-        <v>8.498820646141272</v>
+        <v>5.377148936399037</v>
       </c>
       <c r="D10">
-        <v>7.694180858538917</v>
+        <v>9.253543277860073</v>
       </c>
       <c r="E10">
-        <v>10.15158492756942</v>
+        <v>13.78257224336031</v>
       </c>
       <c r="F10">
-        <v>23.87892747166378</v>
+        <v>33.40284094134115</v>
       </c>
       <c r="I10">
-        <v>14.11315741539003</v>
+        <v>22.86019884663709</v>
       </c>
       <c r="J10">
-        <v>5.994392637387633</v>
+        <v>10.09856623543414</v>
       </c>
       <c r="K10">
-        <v>13.27860581876931</v>
+        <v>10.4950804859547</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>12.95827030826819</v>
+        <v>15.53402794524846</v>
       </c>
       <c r="N10">
-        <v>12.04053484503065</v>
+        <v>19.51835064114272</v>
       </c>
       <c r="O10">
-        <v>16.41985616588482</v>
+        <v>25.12039676418447</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,40 +790,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.47602253881221</v>
+        <v>10.69904819112883</v>
       </c>
       <c r="C11">
-        <v>8.78887942731302</v>
+        <v>5.496463380679391</v>
       </c>
       <c r="D11">
-        <v>7.890197253184253</v>
+        <v>9.285922184016634</v>
       </c>
       <c r="E11">
-        <v>10.33793284282422</v>
+        <v>13.79777566831007</v>
       </c>
       <c r="F11">
-        <v>24.16324019686306</v>
+        <v>33.3893369596964</v>
       </c>
       <c r="I11">
-        <v>14.06504127341485</v>
+        <v>22.81223149901389</v>
       </c>
       <c r="J11">
-        <v>6.005047019256081</v>
+        <v>10.08802319577616</v>
       </c>
       <c r="K11">
-        <v>13.71271485109203</v>
+        <v>10.62225782871494</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>13.2974527034011</v>
+        <v>15.59255218842403</v>
       </c>
       <c r="N11">
-        <v>11.89553499289487</v>
+        <v>19.47893309572052</v>
       </c>
       <c r="O11">
-        <v>16.48718310959786</v>
+        <v>25.08476207624785</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,40 +831,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.66762143919757</v>
+        <v>10.76996648470068</v>
       </c>
       <c r="C12">
-        <v>8.896489717276847</v>
+        <v>5.54103942822212</v>
       </c>
       <c r="D12">
-        <v>7.963631164150247</v>
+        <v>9.298363194873428</v>
       </c>
       <c r="E12">
-        <v>10.40849975489403</v>
+        <v>13.80386558082717</v>
       </c>
       <c r="F12">
-        <v>24.27338737835791</v>
+        <v>33.38527095118873</v>
       </c>
       <c r="I12">
-        <v>14.04876699217953</v>
+        <v>22.79463976348449</v>
       </c>
       <c r="J12">
-        <v>6.009515587973586</v>
+        <v>10.08419855131266</v>
       </c>
       <c r="K12">
-        <v>13.87379240211451</v>
+        <v>10.67021719756004</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>13.42440702908162</v>
+        <v>15.6149901929657</v>
       </c>
       <c r="N12">
-        <v>11.84091069463361</v>
+        <v>19.46424948458625</v>
       </c>
       <c r="O12">
-        <v>16.51497297391667</v>
+        <v>25.07196828513288</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,40 +872,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.62654065437728</v>
+        <v>10.75472467813321</v>
       </c>
       <c r="C13">
-        <v>8.873412697707888</v>
+        <v>5.531466678384484</v>
       </c>
       <c r="D13">
-        <v>7.947851865066895</v>
+        <v>9.295675924594452</v>
       </c>
       <c r="E13">
-        <v>10.39330266438855</v>
+        <v>13.80253926835007</v>
       </c>
       <c r="F13">
-        <v>24.24955475252754</v>
+        <v>33.38610005646023</v>
       </c>
       <c r="I13">
-        <v>14.05218351512622</v>
+        <v>22.79840299089078</v>
       </c>
       <c r="J13">
-        <v>6.008533688430108</v>
+        <v>10.08501479997301</v>
       </c>
       <c r="K13">
-        <v>13.8392484132738</v>
+        <v>10.65989786709596</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>13.39713240383409</v>
+        <v>15.61014570590878</v>
       </c>
       <c r="N13">
-        <v>11.85266279795126</v>
+        <v>19.46740107442287</v>
       </c>
       <c r="O13">
-        <v>16.50888441488841</v>
+        <v>25.07469249643902</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,40 +913,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.49186822369793</v>
+        <v>10.7048968816483</v>
       </c>
       <c r="C14">
-        <v>8.797777135240356</v>
+        <v>5.500143021202056</v>
       </c>
       <c r="D14">
-        <v>7.896254867047002</v>
+        <v>9.286942153257508</v>
       </c>
       <c r="E14">
-        <v>10.34373869467735</v>
+        <v>13.79827004134592</v>
       </c>
       <c r="F14">
-        <v>24.17225229330733</v>
+        <v>33.38898145444919</v>
       </c>
       <c r="I14">
-        <v>14.06366269970261</v>
+        <v>22.81077274078321</v>
       </c>
       <c r="J14">
-        <v>6.005405877258217</v>
+        <v>10.08770517926302</v>
       </c>
       <c r="K14">
-        <v>13.72603304038101</v>
+        <v>10.62620772897552</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>13.30792752132812</v>
+        <v>15.59439272136019</v>
       </c>
       <c r="N14">
-        <v>11.89103547582584</v>
+        <v>19.47772020310208</v>
       </c>
       <c r="O14">
-        <v>16.48942288467031</v>
+        <v>25.08369548308896</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,40 +954,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.40883962384948</v>
+        <v>10.67428413135409</v>
       </c>
       <c r="C15">
-        <v>8.751158555771582</v>
+        <v>5.48087643714875</v>
       </c>
       <c r="D15">
-        <v>7.864545533158535</v>
+        <v>9.28161565820286</v>
       </c>
       <c r="E15">
-        <v>10.31337795502726</v>
+        <v>13.79569824040531</v>
       </c>
       <c r="F15">
-        <v>24.12522577980398</v>
+        <v>33.39088280805464</v>
       </c>
       <c r="I15">
-        <v>14.07095097177254</v>
+        <v>22.81842413441623</v>
       </c>
       <c r="J15">
-        <v>6.003546914571381</v>
+        <v>10.08937495448724</v>
       </c>
       <c r="K15">
-        <v>13.65625477915139</v>
+        <v>10.60554422617459</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>13.2530911818766</v>
+        <v>15.58477911602495</v>
       </c>
       <c r="N15">
-        <v>11.91457606631659</v>
+        <v>19.48407257581284</v>
       </c>
       <c r="O15">
-        <v>16.47780369277501</v>
+        <v>25.08930129902418</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,40 +995,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.92476513630582</v>
+        <v>10.4974968650399</v>
       </c>
       <c r="C16">
-        <v>8.479551622814526</v>
+        <v>5.369268663383704</v>
       </c>
       <c r="D16">
-        <v>7.681262323448982</v>
+        <v>9.251452816277371</v>
       </c>
       <c r="E16">
-        <v>10.13940960159383</v>
+        <v>13.78162540996276</v>
       </c>
       <c r="F16">
-        <v>23.86069460502207</v>
+        <v>33.40387009788902</v>
       </c>
       <c r="I16">
-        <v>14.11656792696144</v>
+        <v>22.86341370768725</v>
       </c>
       <c r="J16">
-        <v>5.993756356146595</v>
+        <v>10.09927874236584</v>
       </c>
       <c r="K16">
-        <v>13.24977169449471</v>
+        <v>10.48674354130732</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>12.93589999030766</v>
+        <v>15.53024263877545</v>
       </c>
       <c r="N16">
-        <v>12.0500520637418</v>
+        <v>19.52096072738775</v>
       </c>
       <c r="O16">
-        <v>16.41577225511649</v>
+        <v>25.12282351827098</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,40 +1036,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.62039146431175</v>
+        <v>10.387886699055</v>
       </c>
       <c r="C17">
-        <v>8.308938137088511</v>
+        <v>5.299761322298505</v>
       </c>
       <c r="D17">
-        <v>7.567463318402309</v>
+        <v>9.233277247337078</v>
       </c>
       <c r="E17">
-        <v>10.0327432498125</v>
+        <v>13.77358844924811</v>
       </c>
       <c r="F17">
-        <v>23.70283765759407</v>
+        <v>33.41370401388614</v>
       </c>
       <c r="I17">
-        <v>14.1478950666525</v>
+        <v>22.89203248174961</v>
       </c>
       <c r="J17">
-        <v>5.98850897518323</v>
+        <v>10.10565355243575</v>
       </c>
       <c r="K17">
-        <v>12.99449519608648</v>
+        <v>10.41355389128384</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>12.73874772569706</v>
+        <v>15.49729276797785</v>
       </c>
       <c r="N17">
-        <v>12.13369526287955</v>
+        <v>19.54402430340318</v>
       </c>
       <c r="O17">
-        <v>16.38170572294048</v>
+        <v>25.14463458227162</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,40 +1077,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.44258947031312</v>
+        <v>10.32443913247786</v>
       </c>
       <c r="C18">
-        <v>8.209332710371434</v>
+        <v>5.259412982566952</v>
       </c>
       <c r="D18">
-        <v>7.501526020615054</v>
+        <v>9.222946197332281</v>
       </c>
       <c r="E18">
-        <v>9.971430239293491</v>
+        <v>13.76918599020663</v>
       </c>
       <c r="F18">
-        <v>23.61366767507831</v>
+        <v>33.42004631514926</v>
       </c>
       <c r="I18">
-        <v>14.16710553629664</v>
+        <v>22.90886762295354</v>
       </c>
       <c r="J18">
-        <v>5.985765438827189</v>
+        <v>10.10943021065525</v>
       </c>
       <c r="K18">
-        <v>12.84548992413311</v>
+        <v>10.37135782060444</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>12.62443494213392</v>
+        <v>15.47853134674138</v>
       </c>
       <c r="N18">
-        <v>12.18200847933284</v>
+        <v>19.55744966264984</v>
       </c>
       <c r="O18">
-        <v>16.36354682403159</v>
+        <v>25.15763740044116</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,40 +1118,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.38191810612376</v>
+        <v>10.3028899108737</v>
       </c>
       <c r="C19">
-        <v>8.175354461418289</v>
+        <v>5.245689494512256</v>
       </c>
       <c r="D19">
-        <v>7.479119512801284</v>
+        <v>9.219469639626892</v>
       </c>
       <c r="E19">
-        <v>9.950679057599942</v>
+        <v>13.76773330839852</v>
       </c>
       <c r="F19">
-        <v>23.58375523654558</v>
+        <v>33.42231155119806</v>
       </c>
       <c r="I19">
-        <v>14.17381118383505</v>
+        <v>22.91463199866701</v>
       </c>
       <c r="J19">
-        <v>5.984883289280671</v>
+        <v>10.11072783012594</v>
       </c>
       <c r="K19">
-        <v>12.79466505848174</v>
+        <v>10.35705527795623</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>12.58557599363751</v>
+        <v>15.47221217250785</v>
       </c>
       <c r="N19">
-        <v>12.19840225691291</v>
+        <v>19.56202273753596</v>
       </c>
       <c r="O19">
-        <v>16.3576421462021</v>
+        <v>25.16211850437184</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,40 +1159,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.65307530184462</v>
+        <v>10.39959708430398</v>
       </c>
       <c r="C20">
-        <v>8.327252554589771</v>
+        <v>5.307199035877548</v>
       </c>
       <c r="D20">
-        <v>7.579627816714943</v>
+        <v>9.235199385066815</v>
       </c>
       <c r="E20">
-        <v>10.04409446811861</v>
+        <v>13.77442123220492</v>
       </c>
       <c r="F20">
-        <v>23.71947357309799</v>
+        <v>33.41258617017828</v>
       </c>
       <c r="I20">
-        <v>14.14443606682954</v>
+        <v>22.88894721423686</v>
       </c>
       <c r="J20">
-        <v>5.989039050441784</v>
+        <v>10.10496355686764</v>
       </c>
       <c r="K20">
-        <v>13.02189503921846</v>
+        <v>10.4213556605336</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>12.75983036103742</v>
+        <v>15.50078072173983</v>
       </c>
       <c r="N20">
-        <v>12.12477037949347</v>
+        <v>19.54155261547343</v>
       </c>
       <c r="O20">
-        <v>16.38518293204267</v>
+        <v>25.1422653824173</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,40 +1200,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.53153680154191</v>
+        <v>10.71955175621035</v>
       </c>
       <c r="C21">
-        <v>8.820053450069008</v>
+        <v>5.509360259677662</v>
       </c>
       <c r="D21">
-        <v>7.911432051751873</v>
+        <v>9.289502654084432</v>
       </c>
       <c r="E21">
-        <v>10.35829720972606</v>
+        <v>13.79951501535732</v>
       </c>
       <c r="F21">
-        <v>24.19489049092438</v>
+        <v>33.38810669092837</v>
       </c>
       <c r="I21">
-        <v>14.06023722777237</v>
+        <v>22.8071239053588</v>
       </c>
       <c r="J21">
-        <v>6.006312707068776</v>
+        <v>10.08691039871995</v>
       </c>
       <c r="K21">
-        <v>13.75937683972797</v>
+        <v>10.63610910920007</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>13.33417008139307</v>
+        <v>15.59901237042115</v>
       </c>
       <c r="N21">
-        <v>11.8797569892727</v>
+        <v>19.4746826396111</v>
       </c>
       <c r="O21">
-        <v>16.4950762004483</v>
+        <v>25.08103207448022</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,40 +1241,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.08155857157313</v>
+        <v>10.92461170867865</v>
       </c>
       <c r="C22">
-        <v>9.129147672488612</v>
+        <v>5.637939019957971</v>
       </c>
       <c r="D22">
-        <v>8.123643689207388</v>
+        <v>9.32603747905714</v>
       </c>
       <c r="E22">
-        <v>10.56363138426726</v>
+        <v>13.81785276707416</v>
       </c>
       <c r="F22">
-        <v>24.52008010163539</v>
+        <v>33.37821391089078</v>
       </c>
       <c r="I22">
-        <v>14.01660929652868</v>
+        <v>22.75698458370344</v>
       </c>
       <c r="J22">
-        <v>6.020137858089649</v>
+        <v>10.07608939538163</v>
       </c>
       <c r="K22">
-        <v>14.22207976907183</v>
+        <v>10.77527834090983</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>13.74281914205956</v>
+        <v>15.66481544439961</v>
       </c>
       <c r="N22">
-        <v>11.72126925292509</v>
+        <v>19.43239489575251</v>
       </c>
       <c r="O22">
-        <v>16.58031401932381</v>
+        <v>25.04509479418772</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,40 +1282,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.79019478488939</v>
+        <v>10.81555907923559</v>
       </c>
       <c r="C23">
-        <v>8.965358788574877</v>
+        <v>5.569649949150372</v>
       </c>
       <c r="D23">
-        <v>8.010821857381501</v>
+        <v>9.30644511578573</v>
       </c>
       <c r="E23">
-        <v>10.45405850869482</v>
+        <v>13.8078894596264</v>
       </c>
       <c r="F23">
-        <v>24.34519620428603</v>
+        <v>33.38293545343491</v>
       </c>
       <c r="I23">
-        <v>14.03881208421097</v>
+        <v>22.78343939975617</v>
       </c>
       <c r="J23">
-        <v>6.012522689354093</v>
+        <v>10.08177540404343</v>
       </c>
       <c r="K23">
-        <v>13.9768851388937</v>
+        <v>10.70112364271042</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>13.50596044575871</v>
+        <v>15.62955301259025</v>
       </c>
       <c r="N23">
-        <v>11.80571549221555</v>
+        <v>19.45483548215886</v>
       </c>
       <c r="O23">
-        <v>16.53356319926726</v>
+        <v>25.0639013690678</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,40 +1323,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.63830770502942</v>
+        <v>10.39430415698709</v>
       </c>
       <c r="C24">
-        <v>8.318977334458276</v>
+        <v>5.303837650046004</v>
       </c>
       <c r="D24">
-        <v>7.574129840092027</v>
+        <v>9.2343300174705</v>
       </c>
       <c r="E24">
-        <v>10.03896254425862</v>
+        <v>13.77404405144003</v>
       </c>
       <c r="F24">
-        <v>23.71194754181681</v>
+        <v>33.41308940219276</v>
       </c>
       <c r="I24">
-        <v>14.1459961512682</v>
+        <v>22.89034087434305</v>
       </c>
       <c r="J24">
-        <v>5.98879855329541</v>
+        <v>10.10527515592265</v>
       </c>
       <c r="K24">
-        <v>13.00951455886941</v>
+        <v>10.41782884594057</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>12.75030190825619</v>
+        <v>15.499203250224</v>
       </c>
       <c r="N24">
-        <v>12.12880461461866</v>
+        <v>19.54266954903281</v>
       </c>
       <c r="O24">
-        <v>16.383606449999</v>
+        <v>25.14333505444775</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,40 +1364,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.29114747775109</v>
+        <v>9.924848208738704</v>
       </c>
       <c r="C25">
-        <v>7.565372581521183</v>
+        <v>5.003183817868613</v>
       </c>
       <c r="D25">
-        <v>7.084901963673408</v>
+        <v>9.161274303971169</v>
       </c>
       <c r="E25">
-        <v>9.592948435869344</v>
+        <v>13.74596532190499</v>
       </c>
       <c r="F25">
-        <v>23.09095612851374</v>
+        <v>33.47184279514008</v>
       </c>
       <c r="I25">
-        <v>14.30676271967555</v>
+        <v>23.0199630645842</v>
       </c>
       <c r="J25">
-        <v>5.973654374825999</v>
+        <v>10.13483150711945</v>
       </c>
       <c r="K25">
-        <v>11.88280783228186</v>
+        <v>10.10864642999077</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>11.90064629351569</v>
+        <v>15.36593250398706</v>
       </c>
       <c r="N25">
-        <v>12.48519289752591</v>
+        <v>19.64352700501365</v>
       </c>
       <c r="O25">
-        <v>16.27632301483955</v>
+        <v>25.24650981154413</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_123/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_123/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9.569019626703195</v>
+        <v>12.20787178063607</v>
       </c>
       <c r="C2">
-        <v>4.77145487767217</v>
+        <v>6.961319614716505</v>
       </c>
       <c r="D2">
-        <v>9.111797131698783</v>
+        <v>6.711346505372499</v>
       </c>
       <c r="E2">
-        <v>13.73263851607108</v>
+        <v>9.268162984413783</v>
       </c>
       <c r="F2">
-        <v>33.53764191898373</v>
+        <v>22.68654174919762</v>
       </c>
       <c r="I2">
-        <v>23.12770959703998</v>
+        <v>14.46001918114829</v>
       </c>
       <c r="J2">
-        <v>10.16022615965016</v>
+        <v>5.970995403164616</v>
       </c>
       <c r="K2">
-        <v>9.879565221039705</v>
+        <v>10.98127285836787</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.27455908910457</v>
+        <v>11.24904818483085</v>
       </c>
       <c r="N2">
-        <v>19.72310094328491</v>
+        <v>12.75529334253413</v>
       </c>
       <c r="O2">
-        <v>25.33748623929682</v>
+        <v>16.24054217735582</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,40 +462,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.323129051461319</v>
+        <v>11.41614055775578</v>
       </c>
       <c r="C3">
-        <v>4.608940374867309</v>
+        <v>6.521019558072644</v>
       </c>
       <c r="D3">
-        <v>9.081071464213434</v>
+        <v>6.451340628001252</v>
       </c>
       <c r="E3">
-        <v>13.72823215512705</v>
+        <v>9.051491785648782</v>
       </c>
       <c r="F3">
-        <v>33.59627219694943</v>
+        <v>22.44488147026752</v>
       </c>
       <c r="I3">
-        <v>23.20840598797397</v>
+        <v>14.58379765866253</v>
       </c>
       <c r="J3">
-        <v>10.17970882645873</v>
+        <v>5.974243659278358</v>
       </c>
       <c r="K3">
-        <v>9.72431153211933</v>
+        <v>10.32546420697922</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.21705972128952</v>
+        <v>10.79367522351711</v>
       </c>
       <c r="N3">
-        <v>19.78037058264195</v>
+        <v>12.94356616319743</v>
       </c>
       <c r="O3">
-        <v>25.40848426633846</v>
+        <v>16.24134892338171</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,40 +503,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.170404399642626</v>
+        <v>10.90144990052704</v>
       </c>
       <c r="C4">
-        <v>4.506845230006216</v>
+        <v>6.235372290747356</v>
       </c>
       <c r="D4">
-        <v>9.063625518905512</v>
+        <v>6.288915557106313</v>
       </c>
       <c r="E4">
-        <v>13.72782019895599</v>
+        <v>8.920571054306633</v>
       </c>
       <c r="F4">
-        <v>33.63918473314339</v>
+        <v>22.31222624020158</v>
       </c>
       <c r="I4">
-        <v>23.26173951049202</v>
+        <v>14.66904789986451</v>
       </c>
       <c r="J4">
-        <v>10.19279432961303</v>
+        <v>5.978647527566743</v>
       </c>
       <c r="K4">
-        <v>9.629292081229572</v>
+        <v>9.900789781170646</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.18400478770095</v>
+        <v>10.50827885477474</v>
       </c>
       <c r="N4">
-        <v>19.81719153603212</v>
+        <v>13.06187394596209</v>
       </c>
       <c r="O4">
-        <v>25.45667817026714</v>
+        <v>16.2535565814038</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,40 +544,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.107823740127978</v>
+        <v>10.68450851682404</v>
       </c>
       <c r="C5">
-        <v>4.464724283594077</v>
+        <v>6.115119927296606</v>
       </c>
       <c r="D5">
-        <v>9.0568784276144</v>
+        <v>6.222128093685567</v>
       </c>
       <c r="E5">
-        <v>13.72823079897826</v>
+        <v>8.86781701786982</v>
       </c>
       <c r="F5">
-        <v>33.65840857046877</v>
+        <v>22.26207428356672</v>
       </c>
       <c r="I5">
-        <v>23.28442515574811</v>
+        <v>14.70603271515175</v>
       </c>
       <c r="J5">
-        <v>10.19840949986023</v>
+        <v>5.98103599096047</v>
       </c>
       <c r="K5">
-        <v>9.590695588802371</v>
+        <v>9.722227505436795</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.17111028186028</v>
+        <v>10.39069247507297</v>
       </c>
       <c r="N5">
-        <v>19.83261428344701</v>
+        <v>13.11078427462441</v>
       </c>
       <c r="O5">
-        <v>25.47747334745744</v>
+        <v>16.26137949250273</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,40 +585,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.09741435629485</v>
+        <v>10.6480502285127</v>
       </c>
       <c r="C6">
-        <v>4.457700947733464</v>
+        <v>6.094919726762237</v>
       </c>
       <c r="D6">
-        <v>9.055780105576938</v>
+        <v>6.211005132495726</v>
       </c>
       <c r="E6">
-        <v>13.72833396301123</v>
+        <v>8.859095224565602</v>
       </c>
       <c r="F6">
-        <v>33.66170550223953</v>
+        <v>22.25398089592588</v>
       </c>
       <c r="I6">
-        <v>23.28824957304356</v>
+        <v>14.71230728628295</v>
       </c>
       <c r="J6">
-        <v>10.19935897946649</v>
+        <v>5.981468109479915</v>
       </c>
       <c r="K6">
-        <v>9.584295596422464</v>
+        <v>9.692246062120045</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.16900420395823</v>
+        <v>10.37109515166546</v>
       </c>
       <c r="N6">
-        <v>19.83520049503994</v>
+        <v>13.11894852857271</v>
       </c>
       <c r="O6">
-        <v>25.48099614154455</v>
+        <v>16.26284765432035</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,40 +626,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.169561679193622</v>
+        <v>10.89855332919644</v>
       </c>
       <c r="C7">
-        <v>4.506279173232492</v>
+        <v>6.233766106716594</v>
       </c>
       <c r="D7">
-        <v>9.063533051743342</v>
+        <v>6.288017117671216</v>
       </c>
       <c r="E7">
-        <v>13.72782339211653</v>
+        <v>8.919857090677517</v>
       </c>
       <c r="F7">
-        <v>33.63943696364459</v>
+        <v>22.31153412892619</v>
       </c>
       <c r="I7">
-        <v>23.26204160338371</v>
+        <v>14.66953770598433</v>
       </c>
       <c r="J7">
-        <v>10.19286891261677</v>
+        <v>5.978677350596211</v>
       </c>
       <c r="K7">
-        <v>9.628770987526766</v>
+        <v>9.898403865224058</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.18382854448871</v>
+        <v>10.50669800475376</v>
       </c>
       <c r="N7">
-        <v>19.81739783890121</v>
+        <v>13.06253071427608</v>
       </c>
       <c r="O7">
-        <v>25.45695394320491</v>
+        <v>16.25365068037483</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,40 +667,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.48465470477362</v>
+        <v>11.9407990631849</v>
       </c>
       <c r="C8">
-        <v>4.715936477412281</v>
+        <v>6.812677635315781</v>
       </c>
       <c r="D8">
-        <v>9.100911520049872</v>
+        <v>6.622331076647568</v>
       </c>
       <c r="E8">
-        <v>13.73064429063252</v>
+        <v>9.193054419274521</v>
       </c>
       <c r="F8">
-        <v>33.55642183003316</v>
+        <v>22.59992781796635</v>
       </c>
       <c r="I8">
-        <v>23.15474793697524</v>
+        <v>14.50072808975558</v>
       </c>
       <c r="J8">
-        <v>10.16671088300262</v>
+        <v>5.971608087446949</v>
       </c>
       <c r="K8">
-        <v>9.825998445407086</v>
+        <v>10.75973101049529</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.25427244606797</v>
+        <v>11.09333574826214</v>
       </c>
       <c r="N8">
-        <v>19.74250429799471</v>
+        <v>12.81965902731032</v>
       </c>
       <c r="O8">
-        <v>25.36101079040478</v>
+        <v>16.23833141085498</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,40 +708,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.08476391724651</v>
+        <v>13.75904825745578</v>
       </c>
       <c r="C9">
-        <v>5.10618764783627</v>
+        <v>7.826823920970292</v>
       </c>
       <c r="D9">
-        <v>9.185229100752917</v>
+        <v>7.251944014551505</v>
       </c>
       <c r="E9">
-        <v>13.75428849249351</v>
+        <v>9.742778143443722</v>
       </c>
       <c r="F9">
-        <v>33.44854839740529</v>
+        <v>23.29188246942443</v>
       </c>
       <c r="I9">
-        <v>22.97438779415082</v>
+        <v>14.24693360894299</v>
       </c>
       <c r="J9">
-        <v>10.12431202030651</v>
+        <v>5.977403760580925</v>
       </c>
       <c r="K9">
-        <v>10.21313256478079</v>
+        <v>12.27350549366296</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>15.40980522902307</v>
+        <v>12.19117504267638</v>
       </c>
       <c r="N9">
-        <v>19.60873130666223</v>
+        <v>12.36400655064011</v>
       </c>
       <c r="O9">
-        <v>25.20942116238844</v>
+        <v>16.30550121076354</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,40 +749,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.5099479312334</v>
+        <v>14.95912659174366</v>
       </c>
       <c r="C10">
-        <v>5.377148936399037</v>
+        <v>8.498820646141324</v>
       </c>
       <c r="D10">
-        <v>9.253543277860073</v>
+        <v>7.694180858538911</v>
       </c>
       <c r="E10">
-        <v>13.78257224336031</v>
+        <v>10.15158492756948</v>
       </c>
       <c r="F10">
-        <v>33.40284094134115</v>
+        <v>23.87892747166384</v>
       </c>
       <c r="I10">
-        <v>22.86019884663709</v>
+        <v>14.11315741539011</v>
       </c>
       <c r="J10">
-        <v>10.09856623543414</v>
+        <v>5.994392637387679</v>
       </c>
       <c r="K10">
-        <v>10.4950804859547</v>
+        <v>13.27860581876932</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>15.53402794524846</v>
+        <v>12.95827030826821</v>
       </c>
       <c r="N10">
-        <v>19.51835064114272</v>
+        <v>12.04053484503076</v>
       </c>
       <c r="O10">
-        <v>25.12039676418447</v>
+        <v>16.41985616588488</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,40 +790,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.69904819112883</v>
+        <v>15.47602253881231</v>
       </c>
       <c r="C11">
-        <v>5.496463380679391</v>
+        <v>8.788879427312974</v>
       </c>
       <c r="D11">
-        <v>9.285922184016634</v>
+        <v>7.890197253184253</v>
       </c>
       <c r="E11">
-        <v>13.79777566831007</v>
+        <v>10.33793284282423</v>
       </c>
       <c r="F11">
-        <v>33.3893369596964</v>
+        <v>24.16324019686295</v>
       </c>
       <c r="I11">
-        <v>22.81223149901389</v>
+        <v>14.06504127341477</v>
       </c>
       <c r="J11">
-        <v>10.08802319577616</v>
+        <v>6.005047019256135</v>
       </c>
       <c r="K11">
-        <v>10.62225782871494</v>
+        <v>13.71271485109209</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>15.59255218842403</v>
+        <v>13.29745270340109</v>
       </c>
       <c r="N11">
-        <v>19.47893309572052</v>
+        <v>11.89553499289483</v>
       </c>
       <c r="O11">
-        <v>25.08476207624785</v>
+        <v>16.48718310959777</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,40 +831,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.76996648470068</v>
+        <v>15.66762143919758</v>
       </c>
       <c r="C12">
-        <v>5.54103942822212</v>
+        <v>8.896489717277001</v>
       </c>
       <c r="D12">
-        <v>9.298363194873428</v>
+        <v>7.963631164150245</v>
       </c>
       <c r="E12">
-        <v>13.80386558082717</v>
+        <v>10.40849975489407</v>
       </c>
       <c r="F12">
-        <v>33.38527095118873</v>
+        <v>24.27338737835786</v>
       </c>
       <c r="I12">
-        <v>22.79463976348449</v>
+        <v>14.04876699217953</v>
       </c>
       <c r="J12">
-        <v>10.08419855131266</v>
+        <v>6.009515587973612</v>
       </c>
       <c r="K12">
-        <v>10.67021719756004</v>
+        <v>13.87379240211459</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>15.6149901929657</v>
+        <v>13.42440702908159</v>
       </c>
       <c r="N12">
-        <v>19.46424948458625</v>
+        <v>11.84091069463365</v>
       </c>
       <c r="O12">
-        <v>25.07196828513288</v>
+        <v>16.51497297391658</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,40 +872,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.75472467813321</v>
+        <v>15.62654065437729</v>
       </c>
       <c r="C13">
-        <v>5.531466678384484</v>
+        <v>8.873412697708003</v>
       </c>
       <c r="D13">
-        <v>9.295675924594452</v>
+        <v>7.947851865066891</v>
       </c>
       <c r="E13">
-        <v>13.80253926835007</v>
+        <v>10.39330266438858</v>
       </c>
       <c r="F13">
-        <v>33.38610005646023</v>
+        <v>24.24955475252749</v>
       </c>
       <c r="I13">
-        <v>22.79840299089078</v>
+        <v>14.05218351512619</v>
       </c>
       <c r="J13">
-        <v>10.08501479997301</v>
+        <v>6.008533688430138</v>
       </c>
       <c r="K13">
-        <v>10.65989786709596</v>
+        <v>13.83924841327386</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>15.61014570590878</v>
+        <v>13.39713240383409</v>
       </c>
       <c r="N13">
-        <v>19.46740107442287</v>
+        <v>11.8526627979512</v>
       </c>
       <c r="O13">
-        <v>25.07469249643902</v>
+        <v>16.50888441488836</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,40 +913,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.7048968816483</v>
+        <v>15.49186822369794</v>
       </c>
       <c r="C14">
-        <v>5.500143021202056</v>
+        <v>8.797777135240276</v>
       </c>
       <c r="D14">
-        <v>9.286942153257508</v>
+        <v>7.896254867047</v>
       </c>
       <c r="E14">
-        <v>13.79827004134592</v>
+        <v>10.34373869467736</v>
       </c>
       <c r="F14">
-        <v>33.38898145444919</v>
+        <v>24.17225229330738</v>
       </c>
       <c r="I14">
-        <v>22.81077274078321</v>
+        <v>14.06366269970265</v>
       </c>
       <c r="J14">
-        <v>10.08770517926302</v>
+        <v>6.005405877258268</v>
       </c>
       <c r="K14">
-        <v>10.62620772897552</v>
+        <v>13.726033040381</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>15.59439272136019</v>
+        <v>13.30792752132814</v>
       </c>
       <c r="N14">
-        <v>19.47772020310208</v>
+        <v>11.89103547582581</v>
       </c>
       <c r="O14">
-        <v>25.08369548308896</v>
+        <v>16.48942288467035</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,40 +954,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.67428413135409</v>
+        <v>15.40883962384956</v>
       </c>
       <c r="C15">
-        <v>5.48087643714875</v>
+        <v>8.751158555771605</v>
       </c>
       <c r="D15">
-        <v>9.28161565820286</v>
+        <v>7.864545533158503</v>
       </c>
       <c r="E15">
-        <v>13.79569824040531</v>
+        <v>10.31337795502724</v>
       </c>
       <c r="F15">
-        <v>33.39088280805464</v>
+        <v>24.12522577980377</v>
       </c>
       <c r="I15">
-        <v>22.81842413441623</v>
+        <v>14.07095097177232</v>
       </c>
       <c r="J15">
-        <v>10.08937495448724</v>
+        <v>6.003546914571388</v>
       </c>
       <c r="K15">
-        <v>10.60554422617459</v>
+        <v>13.65625477915145</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>15.58477911602495</v>
+        <v>13.25309118187657</v>
       </c>
       <c r="N15">
-        <v>19.48407257581284</v>
+        <v>11.91457606631642</v>
       </c>
       <c r="O15">
-        <v>25.08930129902418</v>
+        <v>16.47780369277483</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,40 +995,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.4974968650399</v>
+        <v>14.9247651363058</v>
       </c>
       <c r="C16">
-        <v>5.369268663383704</v>
+        <v>8.479551622814565</v>
       </c>
       <c r="D16">
-        <v>9.251452816277371</v>
+        <v>7.68126232344893</v>
       </c>
       <c r="E16">
-        <v>13.78162540996276</v>
+        <v>10.13940960159384</v>
       </c>
       <c r="F16">
-        <v>33.40387009788902</v>
+        <v>23.86069460502206</v>
       </c>
       <c r="I16">
-        <v>22.86341370768725</v>
+        <v>14.11656792696152</v>
       </c>
       <c r="J16">
-        <v>10.09927874236584</v>
+        <v>5.993756356146596</v>
       </c>
       <c r="K16">
-        <v>10.48674354130732</v>
+        <v>13.24977169449471</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>15.53024263877545</v>
+        <v>12.93589999030767</v>
       </c>
       <c r="N16">
-        <v>19.52096072738775</v>
+        <v>12.0500520637418</v>
       </c>
       <c r="O16">
-        <v>25.12282351827098</v>
+        <v>16.41577225511651</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,40 +1036,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.387886699055</v>
+        <v>14.62039146431175</v>
       </c>
       <c r="C17">
-        <v>5.299761322298505</v>
+        <v>8.308938137088425</v>
       </c>
       <c r="D17">
-        <v>9.233277247337078</v>
+        <v>7.567463318402329</v>
       </c>
       <c r="E17">
-        <v>13.77358844924811</v>
+        <v>10.03274324981254</v>
       </c>
       <c r="F17">
-        <v>33.41370401388614</v>
+        <v>23.7028376575941</v>
       </c>
       <c r="I17">
-        <v>22.89203248174961</v>
+        <v>14.14789506665245</v>
       </c>
       <c r="J17">
-        <v>10.10565355243575</v>
+        <v>5.988508975183231</v>
       </c>
       <c r="K17">
-        <v>10.41355389128384</v>
+        <v>12.99449519608647</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.49729276797785</v>
+        <v>12.73874772569708</v>
       </c>
       <c r="N17">
-        <v>19.54402430340318</v>
+        <v>12.13369526287951</v>
       </c>
       <c r="O17">
-        <v>25.14463458227162</v>
+        <v>16.38170572294048</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,40 +1077,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.32443913247786</v>
+        <v>14.44258947031316</v>
       </c>
       <c r="C18">
-        <v>5.259412982566952</v>
+        <v>8.209332710371388</v>
       </c>
       <c r="D18">
-        <v>9.222946197332281</v>
+        <v>7.501526020615007</v>
       </c>
       <c r="E18">
-        <v>13.76918599020663</v>
+        <v>9.971430239293456</v>
       </c>
       <c r="F18">
-        <v>33.42004631514926</v>
+        <v>23.61366767507837</v>
       </c>
       <c r="I18">
-        <v>22.90886762295354</v>
+        <v>14.16710553629672</v>
       </c>
       <c r="J18">
-        <v>10.10943021065525</v>
+        <v>5.985765438827137</v>
       </c>
       <c r="K18">
-        <v>10.37135782060444</v>
+        <v>12.84548992413312</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.47853134674138</v>
+        <v>12.62443494213391</v>
       </c>
       <c r="N18">
-        <v>19.55744966264984</v>
+        <v>12.18200847933288</v>
       </c>
       <c r="O18">
-        <v>25.15763740044116</v>
+        <v>16.36354682403167</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,40 +1118,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.3028899108737</v>
+        <v>14.38191810612383</v>
       </c>
       <c r="C19">
-        <v>5.245689494512256</v>
+        <v>8.175354461418245</v>
       </c>
       <c r="D19">
-        <v>9.219469639626892</v>
+        <v>7.479119512801217</v>
       </c>
       <c r="E19">
-        <v>13.76773330839852</v>
+        <v>9.950679057600025</v>
       </c>
       <c r="F19">
-        <v>33.42231155119806</v>
+        <v>23.58375523654547</v>
       </c>
       <c r="I19">
-        <v>22.91463199866701</v>
+        <v>14.17381118383494</v>
       </c>
       <c r="J19">
-        <v>10.11072783012594</v>
+        <v>5.984883289280778</v>
       </c>
       <c r="K19">
-        <v>10.35705527795623</v>
+        <v>12.79466505848177</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>15.47221217250785</v>
+        <v>12.58557599363752</v>
       </c>
       <c r="N19">
-        <v>19.56202273753596</v>
+        <v>12.19840225691287</v>
       </c>
       <c r="O19">
-        <v>25.16211850437184</v>
+        <v>16.35764214620201</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,40 +1159,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.39959708430398</v>
+        <v>14.65307530184469</v>
       </c>
       <c r="C20">
-        <v>5.307199035877548</v>
+        <v>8.327252554589842</v>
       </c>
       <c r="D20">
-        <v>9.235199385066815</v>
+        <v>7.579627816714956</v>
       </c>
       <c r="E20">
-        <v>13.77442123220492</v>
+        <v>10.04409446811863</v>
       </c>
       <c r="F20">
-        <v>33.41258617017828</v>
+        <v>23.71947357309792</v>
       </c>
       <c r="I20">
-        <v>22.88894721423686</v>
+        <v>14.14443606682949</v>
       </c>
       <c r="J20">
-        <v>10.10496355686764</v>
+        <v>5.989039050441791</v>
       </c>
       <c r="K20">
-        <v>10.4213556605336</v>
+        <v>13.02189503921852</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.50078072173983</v>
+        <v>12.75983036103742</v>
       </c>
       <c r="N20">
-        <v>19.54155261547343</v>
+        <v>12.12477037949344</v>
       </c>
       <c r="O20">
-        <v>25.1422653824173</v>
+        <v>16.38518293204261</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,40 +1200,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.71955175621035</v>
+        <v>15.53153680154188</v>
       </c>
       <c r="C21">
-        <v>5.509360259677662</v>
+        <v>8.820053450069045</v>
       </c>
       <c r="D21">
-        <v>9.289502654084432</v>
+        <v>7.911432051751873</v>
       </c>
       <c r="E21">
-        <v>13.79951501535732</v>
+        <v>10.35829720972608</v>
       </c>
       <c r="F21">
-        <v>33.38810669092837</v>
+        <v>24.19489049092443</v>
       </c>
       <c r="I21">
-        <v>22.8071239053588</v>
+        <v>14.06023722777245</v>
       </c>
       <c r="J21">
-        <v>10.08691039871995</v>
+        <v>6.006312707068825</v>
       </c>
       <c r="K21">
-        <v>10.63610910920007</v>
+        <v>13.75937683972799</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>15.59901237042115</v>
+        <v>13.33417008139308</v>
       </c>
       <c r="N21">
-        <v>19.4746826396111</v>
+        <v>11.87975698927276</v>
       </c>
       <c r="O21">
-        <v>25.08103207448022</v>
+        <v>16.49507620044833</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,40 +1241,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.92461170867865</v>
+        <v>16.08155857157316</v>
       </c>
       <c r="C22">
-        <v>5.637939019957971</v>
+        <v>9.129147672488781</v>
       </c>
       <c r="D22">
-        <v>9.32603747905714</v>
+        <v>8.123643689207405</v>
       </c>
       <c r="E22">
-        <v>13.81785276707416</v>
+        <v>10.56363138426725</v>
       </c>
       <c r="F22">
-        <v>33.37821391089078</v>
+        <v>24.5200801016353</v>
       </c>
       <c r="I22">
-        <v>22.75698458370344</v>
+        <v>14.01660929652863</v>
       </c>
       <c r="J22">
-        <v>10.07608939538163</v>
+        <v>6.020137858089676</v>
       </c>
       <c r="K22">
-        <v>10.77527834090983</v>
+        <v>14.22207976907191</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>15.66481544439961</v>
+        <v>13.74281914205962</v>
       </c>
       <c r="N22">
-        <v>19.43239489575251</v>
+        <v>11.72126925292505</v>
       </c>
       <c r="O22">
-        <v>25.04509479418772</v>
+        <v>16.58031401932372</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,40 +1282,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.81555907923559</v>
+        <v>15.79019478488946</v>
       </c>
       <c r="C23">
-        <v>5.569649949150372</v>
+        <v>8.965358788574866</v>
       </c>
       <c r="D23">
-        <v>9.30644511578573</v>
+        <v>8.01082185738144</v>
       </c>
       <c r="E23">
-        <v>13.8078894596264</v>
+        <v>10.45405850869481</v>
       </c>
       <c r="F23">
-        <v>33.38293545343491</v>
+        <v>24.34519620428592</v>
       </c>
       <c r="I23">
-        <v>22.78343939975617</v>
+        <v>14.03881208421093</v>
       </c>
       <c r="J23">
-        <v>10.08177540404343</v>
+        <v>6.012522689354169</v>
       </c>
       <c r="K23">
-        <v>10.70112364271042</v>
+        <v>13.97688513889376</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>15.62955301259025</v>
+        <v>13.50596044575868</v>
       </c>
       <c r="N23">
-        <v>19.45483548215886</v>
+        <v>11.80571549221552</v>
       </c>
       <c r="O23">
-        <v>25.0639013690678</v>
+        <v>16.53356319926719</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,40 +1323,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.39430415698709</v>
+        <v>14.63830770502944</v>
       </c>
       <c r="C24">
-        <v>5.303837650046004</v>
+        <v>8.318977334458364</v>
       </c>
       <c r="D24">
-        <v>9.2343300174705</v>
+        <v>7.574129840091991</v>
       </c>
       <c r="E24">
-        <v>13.77404405144003</v>
+        <v>10.03896254425863</v>
       </c>
       <c r="F24">
-        <v>33.41308940219276</v>
+        <v>23.71194754181674</v>
       </c>
       <c r="I24">
-        <v>22.89034087434305</v>
+        <v>14.1459961512682</v>
       </c>
       <c r="J24">
-        <v>10.10527515592265</v>
+        <v>5.988798553295438</v>
       </c>
       <c r="K24">
-        <v>10.41782884594057</v>
+        <v>13.00951455886943</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.499203250224</v>
+        <v>12.75030190825617</v>
       </c>
       <c r="N24">
-        <v>19.54266954903281</v>
+        <v>12.12880461461863</v>
       </c>
       <c r="O24">
-        <v>25.14333505444775</v>
+        <v>16.38360644999896</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,40 +1364,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.924848208738704</v>
+        <v>13.2911474777511</v>
       </c>
       <c r="C25">
-        <v>5.003183817868613</v>
+        <v>7.565372581521189</v>
       </c>
       <c r="D25">
-        <v>9.161274303971169</v>
+        <v>7.084901963673364</v>
       </c>
       <c r="E25">
-        <v>13.74596532190499</v>
+        <v>9.592948435869255</v>
       </c>
       <c r="F25">
-        <v>33.47184279514008</v>
+        <v>23.09095612851354</v>
       </c>
       <c r="I25">
-        <v>23.0199630645842</v>
+        <v>14.30676271967544</v>
       </c>
       <c r="J25">
-        <v>10.13483150711945</v>
+        <v>5.973654374826055</v>
       </c>
       <c r="K25">
-        <v>10.10864642999077</v>
+        <v>11.88280783228188</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.36593250398706</v>
+        <v>11.90064629351564</v>
       </c>
       <c r="N25">
-        <v>19.64352700501365</v>
+        <v>12.48519289752585</v>
       </c>
       <c r="O25">
-        <v>25.24650981154413</v>
+        <v>16.27632301483938</v>
       </c>
     </row>
   </sheetData>
